--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -756,7 +756,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-goal-prom-profile)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -925,7 +925,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
+    <t xml:space="preserve">integer
 </t>
   </si>
   <si>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>92</v>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -925,8 +925,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">integer
-</t>
+    <t>Quantity
+integer</t>
   </si>
   <si>
     <t>(USCDI) Actual result</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-score</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-prom-score</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/StructureDefinition/pco-progress-score-observation</t>
+    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-progress-score-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -701,7 +701,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/prom-target-measures</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -756,7 +756,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-prom-goal-profile)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pco/StructureDefinition/pco-prom-goal-profile)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This observation records how a patient rated their own progress score using a PROM assessment.</t>
+    <t>This observation records how a patient's progress score is rated using a PROM assessment.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/StructureDefinition/pco-progress-score-observation</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -272,14 +272,14 @@
 </t>
   </si>
   <si>
-    <t>Survey Observation</t>
+    <t>assessment observation</t>
   </si>
   <si>
     <t>\-</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}us-core-3:SHALL use UCUM for coded quantity units. {value.ofType(Quantity).system.empty() or value.ofType(Quantity).system = 'http://unitsofmeasure.org'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -622,7 +622,7 @@
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
   </si>
   <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
+    <t>To identify that observation is derived from a questionnaire or other assessment instrument.</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -644,39 +644,31 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Observation.category:us-core</t>
+  </si>
+  <si>
+    <t>us-core</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+  </si>
+  <si>
     <t>Observation.category:survey</t>
   </si>
   <si>
     <t>survey</t>
   </si>
   <si>
-    <t>Used for filtering if the observation is an assessment or screening.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="survey"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.category:screening-assessment</t>
-  </si>
-  <si>
-    <t>screening-assessment</t>
-  </si>
-  <si>
-    <t>Categories that a provider may use in their workflow to classify that this Observation is related to a USCDI Health Status/Assessments Data Class.</t>
-  </si>
-  <si>
-    <t>Used for filtering the type of screening or assessment observation.</t>
-  </si>
-  <si>
-    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
+    <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -837,14 +829,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {$this is DateTime implies $this.toString().length() &gt;= 10}</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -904,9 +888,6 @@
     <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
-    <t>Some questions on questionnaires are not answered directly (e.g., asserted) by the individual completing the questionnaire, but are derived from answers to one or more other questions. For types of answers, `Observation.performer` should not be specified and `Observation.derivedFrom` should reference the relevant Screening Response Observation(s).</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -935,14 +916,14 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have a value if it represents an individual survey, screening, or assessment question and answer pair. An observation should not have a value if it represents a multi-question or multi-select “check all that apply” responses. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -960,13 +941,14 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>(USCDI) Why the result is missing</t>
+    <t>Why the result is missing</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values. For a given LOINC question, if the LOINC answer list includes concepts such as 'unknown' or 'not available', they should be used for Observation.value. Where these concepts are not part of the value set for Observation.value, the Observation.dataAbsentReason can be used if necessary and appropriate.</t>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
@@ -978,8 +960,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1361,17 +1343,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) Reference to panel members or multi-select responses or multi-select responses</t>
-  </si>
-  <si>
-    <t>Aggregate set of Observations that represent question answer pairs for both multi-question surveys, screenings, and assessments and multi-select questions.</t>
-  </si>
-  <si>
-    <t>This grouping element is used to represent surveys, screenings, and assessments that group several questions together or individual questions with  “check all that apply” responses. For example in the simplest case a flat multi-question survey where the "panel" observation is the survey instrument itself and instead of an `Observation.value` the `hasMember` element references other Observation that represent the individual questions answer pairs. When there is a heirarchical grouping of questions, the observation "panels" can be nested. Because surveys, screenings, and assessments can be arbitrarily complex structurally, not all structures can be represented using this Observation grouping pattern.</t>
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1383,14 +1365,14 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|ImagingStudy|Media|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) Related Observation(s) or other resource the observation is made from</t>
-  </si>
-  <si>
-    <t>Observations or or other resource such as a QuestionnaireResponse from which this observation value is derived.</t>
+    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
+  </si>
+  <si>
+    <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
@@ -1478,10 +1460,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1824,7 +1802,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1847,7 +1825,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3690,10 +3668,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3727,28 +3705,28 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3801,23 +3779,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3835,7 +3813,7 @@
         <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>193</v>
@@ -3868,11 +3846,9 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3925,14 +3901,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3954,16 +3930,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3988,11 +3964,11 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4010,7 +3986,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4025,30 +4001,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4071,19 +4047,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4132,7 +4108,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4147,19 +4123,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4167,10 +4143,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4193,16 +4169,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4252,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4273,13 +4249,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4287,14 +4263,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4313,19 +4289,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4374,7 +4350,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4389,19 +4365,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4409,14 +4385,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4435,19 +4411,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4484,17 +4460,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4503,25 +4479,25 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4529,16 +4505,16 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4557,19 +4533,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4618,7 +4594,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4627,25 +4603,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4653,10 +4629,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4679,16 +4655,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4738,7 +4714,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4759,13 +4735,13 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4773,10 +4749,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4799,19 +4775,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4860,7 +4834,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4875,19 +4849,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4895,10 +4869,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4921,19 +4895,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4982,7 +4956,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4991,7 +4965,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -5000,27 +4974,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5034,7 +5008,7 @@
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5046,16 +5020,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5080,13 +5054,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5104,7 +5078,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5113,7 +5087,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5128,7 +5102,7 @@
         <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5139,14 +5113,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5168,16 +5142,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5202,13 +5176,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5226,7 +5200,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5244,27 +5218,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5287,19 +5261,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5348,7 +5322,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5369,10 +5343,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5383,10 +5357,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5412,13 +5386,13 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5444,13 +5418,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5468,7 +5442,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5486,27 +5460,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5532,16 +5506,16 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5566,13 +5540,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5590,7 +5564,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5611,10 +5585,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5625,10 +5599,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5651,16 +5625,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5710,7 +5684,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5728,27 +5702,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5771,16 +5745,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5830,7 +5804,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5848,27 +5822,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5891,19 +5865,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5952,7 +5926,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5964,7 +5938,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5973,10 +5947,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5987,10 +5961,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6013,13 +5987,13 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6070,7 +6044,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6094,7 +6068,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6105,10 +6079,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6137,7 +6111,7 @@
         <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6190,7 +6164,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6214,7 +6188,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6225,14 +6199,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6254,10 +6228,10 @@
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
@@ -6312,7 +6286,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6347,10 +6321,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6373,13 +6347,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6430,7 +6404,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6439,7 +6413,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6451,10 +6425,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6465,10 +6439,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6491,13 +6465,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6548,7 +6522,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6557,7 +6531,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6569,10 +6543,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6583,10 +6557,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6612,16 +6586,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6649,10 +6623,10 @@
         <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6670,7 +6644,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6688,13 +6662,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6705,10 +6679,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6734,16 +6708,16 @@
         <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6768,13 +6742,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6792,7 +6766,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6810,13 +6784,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6827,10 +6801,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6853,17 +6827,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6912,7 +6886,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6936,7 +6910,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6947,10 +6921,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6973,13 +6947,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7030,7 +7004,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7051,10 +7025,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7065,10 +7039,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7082,7 +7056,7 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7091,16 +7065,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7150,7 +7124,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7171,10 +7145,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7185,10 +7159,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7202,7 +7176,7 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -7211,16 +7185,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7270,7 +7244,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7291,10 +7265,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7305,10 +7279,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7331,19 +7305,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7392,7 +7366,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7413,10 +7387,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7427,10 +7401,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7453,13 +7427,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7510,7 +7484,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7534,7 +7508,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7545,10 +7519,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7577,7 +7551,7 @@
         <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7630,7 +7604,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7654,7 +7628,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7665,14 +7639,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7694,10 +7668,10 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7752,7 +7726,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7787,10 +7761,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7816,16 +7790,16 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7850,13 +7824,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7874,7 +7848,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>92</v>
@@ -7892,16 +7866,16 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7909,10 +7883,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7935,19 +7909,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7996,7 +7970,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8014,27 +7988,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8060,16 +8034,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8094,13 +8068,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8118,7 +8092,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8127,7 +8101,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8142,7 +8116,7 @@
         <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8153,14 +8127,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8182,16 +8156,16 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8216,13 +8190,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8240,7 +8214,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8258,27 +8232,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8304,16 +8278,16 @@
         <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8362,7 +8336,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8383,10 +8357,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Indicates the person-centered outcomes observation is of type survey</t>
+  </si>
+  <si>
+    <t>Include 'survey' category to facilitate searching for this Observation as a kind of Assessment</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/pco/ValueSet/pco-survey-category-vs</t>
@@ -3846,9 +3849,11 @@
       <c r="X17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3901,14 +3906,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3930,16 +3935,16 @@
         <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3964,11 +3969,11 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3986,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>92</v>
@@ -4001,30 +4006,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4047,19 +4052,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4108,7 +4113,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4123,19 +4128,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4143,10 +4148,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4169,16 +4174,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4228,7 +4233,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4249,13 +4254,13 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4263,14 +4268,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4289,19 +4294,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4350,7 +4355,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4365,19 +4370,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4385,14 +4390,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4411,19 +4416,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4460,17 +4465,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4485,19 +4490,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4505,16 +4510,16 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4533,19 +4538,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4594,7 +4599,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4609,19 +4614,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4629,10 +4634,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4655,16 +4660,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4714,7 +4719,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4735,13 +4740,13 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4749,10 +4754,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4775,17 +4780,17 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4834,7 +4839,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4849,19 +4854,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -4869,10 +4874,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4895,19 +4900,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4956,7 +4961,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4965,7 +4970,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4974,27 +4979,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5020,16 +5025,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5054,13 +5059,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5078,7 +5083,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5087,7 +5092,7 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5102,7 +5107,7 @@
         <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5113,14 +5118,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5142,16 +5147,16 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5176,13 +5181,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5200,7 +5205,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5218,27 +5223,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5261,19 +5266,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5322,7 +5327,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5343,10 +5348,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5357,10 +5362,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5386,13 +5391,13 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5418,13 +5423,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5442,7 +5447,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5460,27 +5465,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5506,16 +5511,16 @@
         <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5540,13 +5545,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5564,7 +5569,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5585,10 +5590,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5599,10 +5604,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5625,16 +5630,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5684,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5702,27 +5707,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5745,16 +5750,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5804,7 +5809,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5822,27 +5827,27 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5865,19 +5870,19 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5926,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5938,7 +5943,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5947,10 +5952,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5961,10 +5966,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5987,13 +5992,13 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6044,7 +6049,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6068,7 +6073,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6079,10 +6084,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6111,7 +6116,7 @@
         <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
@@ -6164,7 +6169,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6188,7 +6193,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6199,14 +6204,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6228,10 +6233,10 @@
         <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>141</v>
@@ -6286,7 +6291,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6321,10 +6326,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6347,13 +6352,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6404,7 +6409,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6413,7 +6418,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6425,10 +6430,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6439,10 +6444,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6465,13 +6470,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6522,7 +6527,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6531,7 +6536,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6543,10 +6548,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6557,10 +6562,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6586,16 +6591,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6623,10 +6628,10 @@
         <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6644,7 +6649,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6662,13 +6667,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6679,10 +6684,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6708,16 +6713,16 @@
         <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6742,13 +6747,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6766,7 +6771,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6784,13 +6789,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6801,10 +6806,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6827,17 +6832,17 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6886,7 +6891,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6910,7 +6915,7 @@
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6921,10 +6926,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6947,13 +6952,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7004,7 +7009,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7025,10 +7030,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7039,10 +7044,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7065,16 +7070,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7124,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7145,10 +7150,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7159,10 +7164,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7185,16 +7190,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7244,7 +7249,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7265,10 +7270,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7279,10 +7284,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7305,19 +7310,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7366,7 +7371,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7387,10 +7392,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7401,10 +7406,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7427,13 +7432,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7484,7 +7489,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7508,7 +7513,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7519,10 +7524,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7551,7 +7556,7 @@
         <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
@@ -7604,7 +7609,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7628,7 +7633,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7639,14 +7644,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7668,10 +7673,10 @@
         <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>141</v>
@@ -7726,7 +7731,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7761,10 +7766,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7790,16 +7795,16 @@
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7824,13 +7829,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7848,7 +7853,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>92</v>
@@ -7866,16 +7871,16 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7883,10 +7888,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7909,19 +7914,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7970,7 +7975,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7988,27 +7993,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8034,16 +8039,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8068,13 +8073,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8092,7 +8097,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8101,7 +8106,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8116,7 +8121,7 @@
         <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8127,14 +8132,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8156,16 +8161,16 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8190,13 +8195,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8214,7 +8219,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8232,27 +8237,27 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8278,16 +8283,16 @@
         <v>83</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8336,7 +8341,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8357,10 +8362,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score.xlsx
+++ b/StructureDefinition-pco-prom-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
